--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETHER\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8CFAD5-D40E-463E-952A-091426659FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DACC32-DFC8-4550-8319-2E33FED77332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2190" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>3 op</t>
   </si>
@@ -63,10 +63,46 @@
     <t>Действие</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Тип инструкции</t>
+  </si>
+  <si>
+    <t>R=A</t>
+  </si>
+  <si>
+    <t>R=A+B</t>
+  </si>
+  <si>
+    <t>R=A-B</t>
+  </si>
+  <si>
+    <t>R=~A</t>
+  </si>
+  <si>
+    <t>R=A&amp;B</t>
+  </si>
+  <si>
+    <t>R=A|B</t>
+  </si>
+  <si>
+    <t>R=A^B</t>
+  </si>
+  <si>
+    <t>R=A&lt;&lt;1</t>
+  </si>
+  <si>
+    <t>R=A&gt;&gt;1</t>
+  </si>
+  <si>
+    <t>R=(A==B)</t>
+  </si>
+  <si>
+    <t>R=(A&lt;B)</t>
+  </si>
+  <si>
+    <t>R=(A&gt;B)</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -102,13 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,7 +426,7 @@
   <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,11 +533,11 @@
       <c r="AF1">
         <v>0</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
+      <c r="AH1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
       <c r="AK1" t="s">
         <v>11</v>
       </c>
@@ -725,14 +757,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -757,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -785,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -813,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -832,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -851,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -870,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -889,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -908,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -927,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -946,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -965,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -984,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1003,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1022,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1041,13 +1069,31 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E22:G22"/>
@@ -1064,24 +1110,6 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETHER\UARTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DACC32-DFC8-4550-8319-2E33FED77332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39984556-D57B-4B87-BCB2-3B47BE57D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="1500" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>3 op</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALU IMM A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALU IMM В</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,7 +449,7 @@
   <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +621,9 @@
       </c>
       <c r="AJ2">
         <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -654,6 +680,9 @@
       </c>
       <c r="AJ3">
         <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,6 +738,9 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AH5">
@@ -719,6 +751,9 @@
       </c>
       <c r="AJ5">
         <v>1</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -1076,24 +1111,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E22:G22"/>
@@ -1110,7 +1127,28 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
   </mergeCells>
+  <conditionalFormatting sqref="AK5:AK8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39984556-D57B-4B87-BCB2-3B47BE57D812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBB9EC-00F9-4635-8DCF-A605309A6EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1500" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="6885" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>3 op</t>
   </si>
@@ -105,23 +106,41 @@
     <t>U</t>
   </si>
   <si>
-    <t xml:space="preserve"> NOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALU IMM A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALU IMM В</t>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>CALC_CONST_A</t>
+  </si>
+  <si>
+    <t>CALC_CONST_B</t>
+  </si>
+  <si>
+    <t>CALC</t>
+  </si>
+  <si>
+    <t>MEM_ACT</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>MOV Rx, Ry</t>
+  </si>
+  <si>
+    <t>R=(A == '0) ? B : PC + 1</t>
+  </si>
+  <si>
+    <t>R=(A == '1) ? B : PC + 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +148,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,27 +182,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -449,7 +485,7 @@
   <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,60 +592,60 @@
       <c r="AF1">
         <v>0</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
       <c r="AK1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
       <c r="AG2" t="s">
         <v>0</v>
       </c>
@@ -627,48 +663,48 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" t="s">
         <v>1</v>
       </c>
@@ -682,50 +718,50 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" t="s">
         <v>7</v>
       </c>
@@ -739,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -753,21 +789,21 @@
         <v>1</v>
       </c>
       <c r="AK5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="AH6">
         <v>1</v>
       </c>
@@ -776,6 +812,9 @@
       </c>
       <c r="AJ6">
         <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -791,11 +830,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -819,11 +858,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="AH8">
         <v>1</v>
       </c>
@@ -847,11 +886,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="AH9">
         <v>1</v>
       </c>
@@ -875,11 +914,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -894,11 +933,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -913,11 +952,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -932,11 +971,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -951,11 +990,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -970,11 +1009,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -989,13 +1028,13 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1008,13 +1047,13 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1027,13 +1066,13 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1046,87 +1085,81 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
@@ -1139,16 +1172,266 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="AK5:AK8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F41687F-267F-44AA-BF3B-7E5FB241E391}">
+  <dimension ref="A1:AL3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="3.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4">
+        <v>17</v>
+      </c>
+      <c r="P1" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4">
+        <v>12</v>
+      </c>
+      <c r="U1" s="4">
+        <v>11</v>
+      </c>
+      <c r="V1" s="4">
+        <v>10</v>
+      </c>
+      <c r="W1" s="4">
+        <v>9</v>
+      </c>
+      <c r="X1" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AG2:AL2"/>
+    <mergeCell ref="AG3:AL3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETHER\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DACC32-DFC8-4550-8319-2E33FED77332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BF1E9-CB36-400C-A43D-23F5FE2BE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
-  <si>
-    <t>3 op</t>
-  </si>
-  <si>
-    <t>2 op</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>type</t>
   </si>
@@ -45,18 +39,6 @@
     <t>REG_B</t>
   </si>
   <si>
-    <t>REG_C</t>
-  </si>
-  <si>
-    <t>1 op</t>
-  </si>
-  <si>
-    <t>IMM 10b</t>
-  </si>
-  <si>
-    <t>IMM 15b</t>
-  </si>
-  <si>
     <t>IMM 20b</t>
   </si>
   <si>
@@ -103,6 +85,27 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>CALC_CONST_A</t>
+  </si>
+  <si>
+    <t>CALC</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>GET_PC</t>
+  </si>
+  <si>
+    <t>MEM_ACT</t>
+  </si>
+  <si>
+    <t>RAM_WE</t>
   </si>
 </sst>
 </file>
@@ -138,11 +141,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,15 +430,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="3.85546875" customWidth="1"/>
+    <col min="1" max="28" width="3.85546875" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" customWidth="1"/>
+    <col min="30" max="32" width="3.85546875" customWidth="1"/>
+    <col min="33" max="33" width="44.28515625" customWidth="1"/>
     <col min="34" max="36" width="6.85546875" customWidth="1"/>
     <col min="37" max="37" width="11.7109375" customWidth="1"/>
   </cols>
@@ -533,184 +543,194 @@
       <c r="AF1">
         <v>0</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AH1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
       <c r="AK1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="AD5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" t="s">
+        <v>23</v>
+      </c>
       <c r="AH5">
         <v>0</v>
       </c>
@@ -722,17 +742,41 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="P6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" t="s">
+        <v>24</v>
+      </c>
       <c r="AH6">
         <v>1</v>
       </c>
@@ -744,23 +788,27 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="U7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AC7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" t="s">
+        <v>25</v>
+      </c>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -772,21 +820,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="AH8">
@@ -800,21 +834,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="AH9">
@@ -828,288 +848,427 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="38">
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B29CD1-ACA1-41B5-992F-B4182A2B3D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD3B866-0BE5-4C2B-ABE8-B36755C89202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1875" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7755" yWindow="390" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,19 +239,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,469 +643,855 @@
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
       <c r="AG2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
       <c r="AG3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
       <c r="AG4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="7" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="5" t="s">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5" t="s">
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="7" t="s">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="5" t="s">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4">
         <v>2</v>
       </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5" t="s">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="7" t="s">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="5" t="s">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4">
         <v>3</v>
       </c>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5" t="s">
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="7" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
       <c r="AC15" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AD15" s="4">
         <v>4</v>
       </c>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5" t="s">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>127105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>192641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1119,13 +1504,13 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1138,13 +1523,13 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1157,13 +1542,13 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1176,13 +1561,13 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1195,13 +1580,13 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1214,13 +1599,13 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1233,13 +1618,13 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1252,13 +1637,13 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1271,11 +1656,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1290,11 +1675,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1309,11 +1694,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1328,11 +1713,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1347,12 +1732,12 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1367,12 +1752,12 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1387,11 +1772,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1406,45 +1791,27 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="P2:T2"/>
@@ -1460,22 +1827,40 @@
     <mergeCell ref="Z14:AC14"/>
     <mergeCell ref="AD14:AF14"/>
     <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E37:H37"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1592,14 +1977,14 @@
       <c r="AF1" s="3">
         <v>0</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1698,24 +2083,24 @@
       <c r="AF2" s="2">
         <v>0</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD3B866-0BE5-4C2B-ABE8-B36755C89202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BA58A-5901-40B2-8FB5-A025A31A370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="390" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>3 op</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Работа с памятью/юартом</t>
+  </si>
+  <si>
+    <t>ОСТАН</t>
+  </si>
+  <si>
+    <t>Регистр операнда 3</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,418 +1084,494 @@
       <c r="AK15" s="4"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
         <v>127105</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>192641</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-    </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1638,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1657,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1798,7 +1880,7 @@
       <c r="G39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="69">
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
@@ -1807,41 +1889,28 @@
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:T4"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="U13:Y13"/>
@@ -1856,11 +1925,31 @@
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="U15:Y15"/>
     <mergeCell ref="P15:T15"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AD15:AF15"/>
     <mergeCell ref="A10:AF10"/>
     <mergeCell ref="AG10:AK10"/>
     <mergeCell ref="AG11:AK11"/>
     <mergeCell ref="AG12:AK12"/>
     <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A11:AC11"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="A16:AC16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BA58A-5901-40B2-8FB5-A025A31A370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66219171-2177-465B-A259-5BF8E45CB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="3000" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,6 @@
     <t>MOV Rx, Ry</t>
   </si>
   <si>
-    <t>R=(A == '0) ? B : PC + 1</t>
-  </si>
-  <si>
-    <t>R=(A == '1) ? B : PC + 1</t>
-  </si>
-  <si>
     <t>ЛЮБОЕ</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Регистр операнда 3</t>
+  </si>
+  <si>
+    <t>R=(A == '1) ? B : PC</t>
+  </si>
+  <si>
+    <t>R=(A == '0) ? B : PC</t>
   </si>
 </sst>
 </file>
@@ -248,10 +248,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="M5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -870,7 +870,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -879,7 +879,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -900,15 +900,15 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="U12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -919,7 +919,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -928,7 +928,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -945,21 +945,21 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="U13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -970,7 +970,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -979,7 +979,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -991,28 +991,28 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="U14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
@@ -1023,7 +1023,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1049,26 +1049,26 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="U15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
       <c r="Z15" s="4">
         <v>0</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD15" s="4">
         <v>4</v>
@@ -1076,7 +1076,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1121,47 +1121,47 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="U17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
@@ -1172,6 +1172,107 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>140</v>
+      </c>
+    </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
@@ -1219,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -1258,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>140</v>
+        <v>127105</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -1317,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -1371,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>127105</v>
+        <v>192641</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -1418,22 +1519,22 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -1448,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -1469,107 +1570,6 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>192641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
         <v>1</v>
       </c>
     </row>
@@ -1814,12 +1814,12 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="E36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1834,12 +1834,12 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1881,6 +1881,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="A16:AC16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A11:AC11"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
@@ -1895,61 +1948,8 @@
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A15:O15"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="A16:AC16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66219171-2177-465B-A259-5BF8E45CB0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FAF064-828D-4771-93BB-497D3A7460D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3000" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="165" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>3 op</t>
   </si>
@@ -136,9 +136,6 @@
     <t>15 бит литерал</t>
   </si>
   <si>
-    <t>З/Ч</t>
-  </si>
-  <si>
     <t>РЕГИСТР ДАННЫХ</t>
   </si>
   <si>
@@ -173,6 +170,36 @@
   </si>
   <si>
     <t>R=(A == '0) ? B : PC</t>
+  </si>
+  <si>
+    <t>Выбор выхода</t>
+  </si>
+  <si>
+    <t>Команда Выв</t>
+  </si>
+  <si>
+    <t>Память</t>
+  </si>
+  <si>
+    <t>чтение</t>
+  </si>
+  <si>
+    <t>запись</t>
+  </si>
+  <si>
+    <t>Юарт</t>
+  </si>
+  <si>
+    <t>чтение данных (любых)</t>
+  </si>
+  <si>
+    <t>тоже ничего не делает</t>
+  </si>
+  <si>
+    <t>чтение rx очереди</t>
+  </si>
+  <si>
+    <t>запись tx очереди</t>
   </si>
 </sst>
 </file>
@@ -234,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,15 +275,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,13 +567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="M5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="3.85546875" customWidth="1"/>
+    <col min="1" max="25" width="3.85546875" customWidth="1"/>
+    <col min="26" max="29" width="5.28515625" customWidth="1"/>
+    <col min="30" max="32" width="3.85546875" customWidth="1"/>
     <col min="34" max="36" width="6.85546875" customWidth="1"/>
     <col min="37" max="37" width="11.7109375" customWidth="1"/>
   </cols>
@@ -791,7 +821,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -870,7 +900,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -900,13 +930,13 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="4" t="s">
         <v>30</v>
       </c>
@@ -919,7 +949,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -951,13 +981,13 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="4" t="s">
         <v>30</v>
       </c>
@@ -970,7 +1000,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1004,13 +1034,13 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
       <c r="Z14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1023,7 +1053,7 @@
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
@@ -1049,34 +1079,34 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" t="s">
+      <c r="U15" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="4">
         <v>4</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -1121,7 +1151,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -1133,7 +1163,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1153,13 +1183,13 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
       <c r="Z17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1591,6 +1621,17 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1610,6 +1651,15 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1629,6 +1679,19 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1648,6 +1711,19 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1667,6 +1743,19 @@
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1686,6 +1775,19 @@
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1705,6 +1807,15 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1724,6 +1835,22 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1743,8 +1870,23 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1762,8 +1904,23 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1781,8 +1938,23 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1801,7 +1973,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1814,34 +1986,34 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1860,7 +2032,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1880,60 +2052,18 @@
       <c r="G39" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="A16:AC16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD3:AF3"/>
+  <mergeCells count="82">
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="N31:U31"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:R25"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
@@ -1950,6 +2080,61 @@
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A15:O15"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A11:AC11"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="A16:AC16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FAF064-828D-4771-93BB-497D3A7460D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7E03E-C5D2-4F72-B382-2938572102A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="165" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5505" yWindow="5385" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>3 op</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Юарт</t>
   </si>
   <si>
-    <t>чтение данных (любых)</t>
-  </si>
-  <si>
     <t>тоже ничего не делает</t>
   </si>
   <si>
@@ -200,6 +197,27 @@
   </si>
   <si>
     <t>запись tx очереди</t>
+  </si>
+  <si>
+    <t>чтение данных без взятия из очереди</t>
+  </si>
+  <si>
+    <t>Данные юарта</t>
+  </si>
+  <si>
+    <t>Слов в РХ</t>
+  </si>
+  <si>
+    <t>Слов в ТХ</t>
+  </si>
+  <si>
+    <t>Данные с РХ</t>
+  </si>
+  <si>
+    <t>Скорость рх</t>
+  </si>
+  <si>
+    <t>Скорость тх</t>
   </si>
 </sst>
 </file>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -1851,6 +1869,8 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1877,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -1886,7 +1906,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1911,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -1920,7 +1940,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1945,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -1954,7 +1974,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1973,7 +1993,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1993,7 +2013,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2013,7 +2033,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2032,7 +2052,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2051,13 +2071,99 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="88">
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="Q42:X42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="N32:T32"/>
     <mergeCell ref="N33:T33"/>
     <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N31:W31"/>
     <mergeCell ref="L30:R30"/>
-    <mergeCell ref="N31:U31"/>
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="P27:R27"/>
     <mergeCell ref="P28:R28"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7E03E-C5D2-4F72-B382-2938572102A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B465DD-4365-4EE2-917A-DBD99543FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5505" yWindow="5385" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="1860" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
   <si>
     <t>3 op</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Скорость тх</t>
+  </si>
+  <si>
+    <t>Пам</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,16 +296,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,13 +950,13 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="4" t="s">
         <v>30</v>
       </c>
@@ -999,13 +1001,13 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1052,13 +1054,13 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1103,21 +1105,21 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6" t="s">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC15" s="6"/>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="4">
         <v>4</v>
       </c>
@@ -1201,13 +1203,13 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1282,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>140</v>
@@ -1650,6 +1652,13 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
+      <c r="T24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1678,6 +1687,17 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1703,13 +1723,22 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
       <c r="P26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1735,8 +1764,6 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
       <c r="P27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1767,8 +1794,6 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
       <c r="P28" s="4" t="s">
         <v>51</v>
       </c>
@@ -1799,8 +1824,6 @@
       <c r="M29">
         <v>1</v>
       </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
       <c r="P29" s="4" t="s">
         <v>52</v>
       </c>
@@ -2006,12 +2029,12 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2026,12 +2049,12 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2152,24 +2175,65 @@
       <c r="AF42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="Q42:X42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N31:W31"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:R25"/>
+  <mergeCells count="91">
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="A16:AC16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A11:AC11"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
@@ -2186,61 +2250,23 @@
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A15:O15"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="A16:AC16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="Q42:X42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A42:D42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ADC0B3-F8A1-4E7F-AC20-23626B1F3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F27AA-5BA6-49BA-AE41-BE6D153F6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Действие</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>Биты</t>
+  </si>
+  <si>
+    <t>Регистр операнда 1 (A)</t>
+  </si>
+  <si>
+    <t>Регистр операнда 2 (B)</t>
+  </si>
+  <si>
+    <t>РЕГИСТР РЕЗУЛЬТАТА (R)</t>
+  </si>
+  <si>
+    <t>INOP SUKA</t>
   </si>
 </sst>
 </file>
@@ -618,15 +630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="3.85546875" customWidth="1"/>
-    <col min="26" max="29" width="5.28515625" customWidth="1"/>
-    <col min="30" max="32" width="3.85546875" customWidth="1"/>
+    <col min="1" max="32" width="4.7109375" customWidth="1"/>
     <col min="33" max="33" width="39.28515625" customWidth="1"/>
     <col min="34" max="34" width="11.5703125" customWidth="1"/>
     <col min="35" max="36" width="6.85546875" customWidth="1"/>
@@ -843,7 +853,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -887,14 +897,14 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
@@ -933,21 +943,21 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1113,7 +1123,9 @@
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
+      <c r="AG9" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -1530,6 +1542,108 @@
       <c r="AG14" s="8" t="str">
         <f>CONCATENATE(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14,X14,Y14,Z14,AA14,AB14,AC14,AD14,AE14,AF14)</f>
         <v>00000000000001000101000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="8" t="str">
+        <f>CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,S15,T15,U15,V15,W15,X15,Y15,Z15,AA15,AB15,AC15,AD15,AE15,AF15)</f>
+        <v>11110111010100000010001010000001</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F27AA-5BA6-49BA-AE41-BE6D153F6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA5B09B-34DD-4AF6-8B04-7B8809D7B2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Действие</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ОПЕРАЦИЯ АЛУ</t>
-  </si>
-  <si>
-    <t>РЕГИСТР РЕЗУЛЬТАТА</t>
   </si>
   <si>
     <t>20 бит литерал</t>
@@ -311,43 +308,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -631,7 +628,7 @@
   <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+      <selection activeCell="U9" sqref="U9:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,47 +641,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -785,454 +782,454 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="4" t="s">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="10">
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="13">
         <v>2</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="4">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
-        <v>6</v>
-      </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>1</v>
-      </c>
-      <c r="N11" s="18">
-        <v>1</v>
-      </c>
-      <c r="O11" s="18">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <v>1</v>
-      </c>
-      <c r="V11" s="14">
-        <v>1</v>
-      </c>
-      <c r="W11" s="14">
-        <v>1</v>
-      </c>
-      <c r="X11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20" t="str">
+      <c r="A11" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7">
+        <v>1</v>
+      </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="10" t="str">
         <f>CONCATENATE(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11,P11,Q11,R11,S11,T11,U11,V11,W11,X11,Y11,Z11,AA11,AB11,AC11,AD11,AE11,AF11)</f>
         <v>00000000000011000000111111101010</v>
       </c>
-      <c r="AH11" s="8" t="e">
+      <c r="AH11" s="4" t="e">
         <f>BIN2DEC(AG11)</f>
         <v>#NUM!</v>
       </c>
@@ -1334,11 +1331,11 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12" s="8" t="str">
+      <c r="AG12" s="4" t="str">
         <f>CONCATENATE(A12,B12,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12,Q12,R12,S12,T12,U12,V12,W12,X12,Y12,Z12,AA12,AB12,AC12,AD12,AE12,AF12)</f>
         <v>00000001111111100000000011010010</v>
       </c>
-      <c r="AH12" s="8"/>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1437,7 +1434,7 @@
       <c r="AF13">
         <v>1</v>
       </c>
-      <c r="AG13" s="8" t="str">
+      <c r="AG13" s="4" t="str">
         <f>CONCATENATE(A13,B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13,Q13,R13,S13,T13,U13,V13,W13,X13,Y13,Z13,AA13,AB13,AC13,AD13,AE13,AF13)</f>
         <v>00000000000101000001111111101011</v>
       </c>
@@ -1539,7 +1536,7 @@
       <c r="AF14">
         <v>1</v>
       </c>
-      <c r="AG14" s="8" t="str">
+      <c r="AG14" s="4" t="str">
         <f>CONCATENATE(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14,P14,Q14,R14,S14,T14,U14,V14,W14,X14,Y14,Z14,AA14,AB14,AC14,AD14,AE14,AF14)</f>
         <v>00000000000001000101000000000001</v>
       </c>
@@ -1641,41 +1638,41 @@
       <c r="AF15">
         <v>1</v>
       </c>
-      <c r="AG15" s="8" t="str">
+      <c r="AG15" s="4" t="str">
         <f>CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15,P15,Q15,R15,S15,T15,U15,V15,W15,X15,Y15,Z15,AA15,AB15,AC15,AD15,AE15,AF15)</f>
         <v>11110111010100000010001010000001</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="L19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="T19" s="4" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="L19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="T19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1690,31 +1687,31 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="L20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="E20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="V20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1729,33 +1726,33 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="E21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="P21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="V21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1770,22 +1767,22 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="P22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1800,22 +1797,22 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="P23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1830,22 +1827,22 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="P24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1860,20 +1857,20 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1888,30 +1885,30 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="N26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1926,29 +1923,29 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="N27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1963,26 +1960,26 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="N28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1997,26 +1994,26 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="N29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2031,11 +2028,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2050,11 +2047,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2069,11 +2066,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -2088,32 +2085,32 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>1</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -2128,11 +2125,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -2147,112 +2144,135 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="A8:AC8"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="Y39:AF39"/>
+    <mergeCell ref="Q39:X39"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="A38:AF38"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="AG1:AK1"/>
     <mergeCell ref="AG3:AK3"/>
@@ -2269,52 +2289,29 @@
     <mergeCell ref="U5:Y5"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="A8:AC8"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="V21:X21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="N27:W27"/>
-    <mergeCell ref="A38:AF38"/>
-    <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="Q39:X39"/>
-    <mergeCell ref="I39:P39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2431,14 +2428,14 @@
       <c r="AF1" s="3">
         <v>0</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2537,24 +2534,24 @@
       <c r="AF2" s="2">
         <v>0</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC969ECC-374D-45FB-B7AE-97B8D4CAB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1E75F-CB14-4618-9E99-FB4FC896672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,12 +160,6 @@
     <t>Регистр операнда 3</t>
   </si>
   <si>
-    <t>R=(A == '1) ? B : PC</t>
-  </si>
-  <si>
-    <t>R=(A == '0) ? B : PC</t>
-  </si>
-  <si>
     <t>Выбор выхода</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>СДВИГ (A на B позиций)</t>
+  </si>
+  <si>
+    <t>R=(A == '1) ? B : A</t>
+  </si>
+  <si>
+    <t>R=(A == '0) ? B : A</t>
   </si>
 </sst>
 </file>
@@ -323,10 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +977,13 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1028,13 +1028,13 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1081,13 +1081,13 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1132,21 +1132,21 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="4">
         <v>4</v>
       </c>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1232,13 +1232,13 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
@@ -1678,7 +1678,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1689,14 +1689,14 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="T24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
@@ -1704,7 +1704,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
@@ -1730,7 +1730,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1745,12 +1745,12 @@
         <v>0</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Z25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
@@ -1758,7 +1758,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -1801,12 +1801,12 @@
         <v>1</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
@@ -1846,12 +1846,12 @@
         <v>1</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
@@ -1891,12 +1891,12 @@
         <v>0</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -1960,7 +1960,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2140,12 +2140,12 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="E36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -2160,12 +2160,12 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -2207,7 +2207,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2243,19 +2243,19 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2265,7 +2265,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
@@ -2275,7 +2275,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
@@ -2287,52 +2287,33 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N31:W31"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="Q42:X42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Z25:AE25"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="Z27:AE27"/>
+    <mergeCell ref="Z28:AE28"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="AF27:AJ27"/>
+    <mergeCell ref="AF28:AJ28"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG12:AK12"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="A11:AC11"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="P13:T13"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
@@ -2351,45 +2332,64 @@
     <mergeCell ref="U14:Y14"/>
     <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="P13:T13"/>
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="V26:X26"/>
     <mergeCell ref="T24:X24"/>
     <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="A16:AC16"/>
     <mergeCell ref="K17:O17"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="A10:AF10"/>
     <mergeCell ref="P17:T17"/>
     <mergeCell ref="U17:Y17"/>
     <mergeCell ref="Z17:AC17"/>
     <mergeCell ref="AD17:AF17"/>
     <mergeCell ref="F17:J17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Z25:AE25"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="Z27:AE27"/>
-    <mergeCell ref="Z28:AE28"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="AF28:AJ28"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N31:W31"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="Y42:AF42"/>
+    <mergeCell ref="Q42:X42"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1E75F-CB14-4618-9E99-FB4FC896672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E93377-1BA4-41DD-B71D-2495D76DD0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,10 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,9 @@
     <col min="1" max="25" width="3.85546875" customWidth="1"/>
     <col min="26" max="29" width="5.28515625" customWidth="1"/>
     <col min="30" max="32" width="3.85546875" customWidth="1"/>
-    <col min="34" max="36" width="6.85546875" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1"/>
+    <col min="35" max="36" width="6.85546875" customWidth="1"/>
     <col min="37" max="37" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -866,9 +868,197 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+    </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -879,30 +1069,40 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="U10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
+      <c r="AD10" s="4">
+        <v>3</v>
+      </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -927,27 +1127,35 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
+      <c r="U11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -956,7 +1164,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -977,46 +1185,44 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
+      <c r="AG12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1028,13 +1234,13 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1042,425 +1248,392 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-    </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="5" t="s">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f xml:space="preserve"> BIN2DEC(CONCATENATE(A15,B15,C15,D15,E15,F15,G15,H15))*256*256*256+BIN2DEC(CONCATENATE(I15,J15,K15,L15,M15,N15,O15,P15))*256*256+BIN2DEC(CONCATENATE(Q15,R15,S15,T15,U15,V15,W15,X15))*256+BIN2DEC(CONCATENATE(Y15,Z15,AA15,AB15,AC15,AD15,AE15,AF15))</f>
+        <v>3969</v>
+      </c>
+      <c r="AH15">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AG18" si="0" xml:space="preserve"> BIN2DEC(CONCATENATE(A16,B16,C16,D16,E16,F16,G16,H16))*256*256*256+BIN2DEC(CONCATENATE(I16,J16,K16,L16,M16,N16,O16,P16))*256*256+BIN2DEC(CONCATENATE(Q16,R16,S16,T16,U16,V16,W16,X16))*256+BIN2DEC(CONCATENATE(Y16,Z16,AA16,AB16,AC16,AD16,AE16,AF16))</f>
+        <v>127105</v>
+      </c>
+      <c r="AH16">
+        <v>127105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="0"/>
+        <v>192641</v>
+      </c>
+      <c r="AH17">
+        <v>192641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="T20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="4">
-        <v>4</v>
-      </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4">
-        <v>6</v>
-      </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>127105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Z20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1471,97 +1644,50 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>192641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Z21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1569,102 +1695,105 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
+      <c r="P22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Z22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="Z23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1673,50 +1802,43 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
       <c r="P24" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="T24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="4" t="s">
-        <v>71</v>
+      <c r="AF24" s="4">
+        <v>3</v>
       </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1725,52 +1847,28 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Z25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1779,54 +1877,26 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="L26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Z26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1835,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1843,35 +1913,27 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="Z27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1880,43 +1942,32 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="Z28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4">
-        <v>3</v>
-      </c>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1925,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1933,20 +1984,24 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1955,26 +2010,32 @@
         <v>0</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="L30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1983,35 +2044,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2019,33 +2062,19 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2053,33 +2082,19 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2088,32 +2103,17 @@
         <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2122,222 +2122,250 @@
         <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4" t="s">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4" t="s">
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
+        <f xml:space="preserve"> BIN2DEC(CONCATENATE(A42,B42,C42,D42,E42,F42,G42,H42))*256*256*256+BIN2DEC(CONCATENATE(I42,J42,K42,L42,M42,N42,O42,P42))*256*256+BIN2DEC(CONCATENATE(Q42,R42,S42,T42,U42,V42,W42,X42))*256+BIN2DEC(CONCATENATE(Y42,Z42,AA42,AB42,AC42,AD42,AE42,AF42))</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Z25:AE25"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="Z27:AE27"/>
-    <mergeCell ref="Z28:AE28"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="AF27:AJ27"/>
-    <mergeCell ref="AF28:AJ28"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AG11:AK11"/>
     <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG12:AK12"/>
-    <mergeCell ref="AG13:AK13"/>
     <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="A12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="U10:Y10"/>
     <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="A11:AC11"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="Q38:X38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A6:AF6"/>
     <mergeCell ref="P13:T13"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="A16:AC16"/>
-    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="F13:J13"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="Z2:AC2"/>
@@ -2347,49 +2375,45 @@
     <mergeCell ref="U2:Y2"/>
     <mergeCell ref="U3:Y3"/>
     <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="P23:R23"/>
     <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N31:W31"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="Y42:AF42"/>
-    <mergeCell ref="Q42:X42"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="A7:AC7"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="K13:O13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E93377-1BA4-41DD-B71D-2495D76DD0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12412A91-94F9-4DED-A4FB-7177E27490BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="0" windowWidth="21540" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="0" windowWidth="24150" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U11" sqref="P11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,40 +2311,47 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="A12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="N27:W27"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="A37:AF37"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="Q38:X38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="A7:AC7"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AF23:AJ23"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:O3"/>
@@ -2369,51 +2376,44 @@
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="Q38:X38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
     <mergeCell ref="N28:T28"/>
     <mergeCell ref="N29:T29"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="A7:AC7"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="A12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:Y11"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="Z22:AE22"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="K13:O13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\UARTP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETHER\UARTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12412A91-94F9-4DED-A4FB-7177E27490BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF3C349-2B50-4854-BF18-1A745535A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="0" windowWidth="24150" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="4485" windowWidth="21600" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>3 op</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Скорость тх</t>
   </si>
   <si>
-    <t>Пам</t>
-  </si>
-  <si>
     <t>Запись MODE (скорости)всех</t>
   </si>
   <si>
@@ -248,6 +245,27 @@
   </si>
   <si>
     <t>R=(A == '0) ? B : A</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>запись ядром в регистр</t>
+  </si>
+  <si>
+    <t>установка IN/OUT (данные 0 - IN, иначе OUT)</t>
+  </si>
+  <si>
+    <t>чтение режима</t>
+  </si>
+  <si>
+    <t>чтение данных</t>
   </si>
 </sst>
 </file>
@@ -614,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U11" sqref="P11:Y11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1223,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1253,7 +1271,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -1618,7 +1636,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
@@ -1626,7 +1644,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
@@ -1667,12 +1685,12 @@
         <v>0</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Z21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
@@ -1680,7 +1698,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
@@ -1723,12 +1741,12 @@
         <v>1</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Z22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
@@ -1772,8 +1790,19 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
       <c r="Z23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
@@ -1818,7 +1847,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="Z24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
@@ -1890,6 +1919,22 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="Z26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1905,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1927,6 +1972,21 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1942,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1953,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1961,6 +2021,24 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1995,6 +2073,24 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2029,6 +2125,24 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2063,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2083,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2310,24 +2424,68 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="A7:AC7"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="P9:T9"/>
+  <mergeCells count="109">
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="N28:W28"/>
+    <mergeCell ref="N29:W29"/>
+    <mergeCell ref="N30:W30"/>
+    <mergeCell ref="L26:W26"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="Q38:X38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:R21"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A9:O9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A6:AF6"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD3:AF3"/>
@@ -2352,51 +2510,23 @@
     <mergeCell ref="AF21:AJ21"/>
     <mergeCell ref="AF22:AJ22"/>
     <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:R21"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A9:O9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A6:AF6"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="N27:W27"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="A37:AF37"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="Q38:X38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="A7:AC7"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="P9:T9"/>
     <mergeCell ref="AG11:AK11"/>
     <mergeCell ref="AG10:AK10"/>
     <mergeCell ref="AD13:AF13"/>
@@ -2404,16 +2534,6 @@
     <mergeCell ref="U13:Y13"/>
     <mergeCell ref="A12:AC12"/>
     <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="AG13:AK13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
